--- a/HibernateExecutionResults.xlsx
+++ b/HibernateExecutionResults.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I342610\Documents\mypracticeworkspace\hibernate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD387F-1FA7-4905-8084-BD2745AD283A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C220FE-BE8D-498A-BE55-09B26CC63CE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3B35CD8C-FCE4-43B6-8FCC-0C6FE325B9F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3B35CD8C-FCE4-43B6-8FCC-0C6FE325B9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch Size Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Result Set Size Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="MaxRows vs Limit vs All rows" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Fetch Size 4</t>
   </si>
@@ -43,19 +44,28 @@
     <t>Fetch Size 16</t>
   </si>
   <si>
-    <t>Fetch Size 17</t>
+    <t>Result Set Size 1000</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>Result Set Size 500</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Result Set Size 100</t>
   </si>
   <si>
-    <t>Running Total</t>
+    <t>Result Set Size 50</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Result Set Size 10</t>
+  </si>
+  <si>
+    <t>Fetch All Rows</t>
+  </si>
+  <si>
+    <t>Fetch With MaxRows</t>
+  </si>
+  <si>
+    <t>Fetch With Limit</t>
   </si>
 </sst>
 </file>
@@ -564,6 +574,932 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result Set Size Comparison'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result Set Size 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result Set Size Comparison'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A270-41A0-BA4F-966476353BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result Set Size Comparison'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result Set Size 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result Set Size Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A270-41A0-BA4F-966476353BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result Set Size Comparison'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result Set Size 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result Set Size Comparison'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A270-41A0-BA4F-966476353BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result Set Size Comparison'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result Set Size 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result Set Size Comparison'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A270-41A0-BA4F-966476353BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result Set Size Comparison'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result Set Size 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result Set Size Comparison'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A270-41A0-BA4F-966476353BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606366704"/>
+        <c:axId val="606370312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606366704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606370312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606370312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606366704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fetch All Rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72C0-4BDF-A8C8-D2EE9D53679F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fetch With MaxRows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72C0-4BDF-A8C8-D2EE9D53679F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fetch With Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'MaxRows vs Limit vs All rows'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72C0-4BDF-A8C8-D2EE9D53679F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606381792"/>
+        <c:axId val="606377528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606381792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606377528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606377528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606381792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -604,7 +1540,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1148,6 +3170,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FD3314-FF2D-47E9-A570-8372EC7DF62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EF167E-B62A-4DDA-9C1D-923136BABFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE911072-589F-44B0-9EC3-CE55953E3CD5}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{98CA1A4F-6100-4860-A2F2-64DB06A7F1E6}"/>
@@ -1157,6 +3261,32 @@
     <tableColumn id="3" xr3:uid="{65E12EF7-8387-42D2-8DCD-B9D4168EA5D5}" name="Fetch Size 16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13D6A8B6-6FD7-42ED-8039-4C0C269B48FC}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{8EBF3BCF-1B54-40A7-B55D-3EF694BADAC7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CA0A9CA8-B0E4-4013-9D7C-A55FD3C20562}" name="Result Set Size 1000"/>
+    <tableColumn id="2" xr3:uid="{A224CFBA-151C-4240-83F7-518D4E376FB0}" name="Result Set Size 500"/>
+    <tableColumn id="3" xr3:uid="{CD31157D-F863-4DD4-8253-1F20BE434ADF}" name="Result Set Size 100"/>
+    <tableColumn id="4" xr3:uid="{BEA4C2F9-902F-41AC-9754-EFAC360D267C}" name="Result Set Size 50"/>
+    <tableColumn id="5" xr3:uid="{CBD4D39A-DB36-4E76-8E5D-DC4A2370CC52}" name="Result Set Size 10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2246D455-3935-4D43-A1BA-82E217E8418E}" name="Table3" displayName="Table3" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{0BA69BAF-3F06-4588-BD71-CC6F8E6202B3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0FA58C66-21EA-45C2-88CB-F896AA28E4D9}" name="Fetch All Rows"/>
+    <tableColumn id="2" xr3:uid="{43725710-0441-4A57-9C3C-6E0FBF3CD9BC}" name="Fetch With MaxRows"/>
+    <tableColumn id="3" xr3:uid="{659527DE-4603-48CF-A949-0DCDB1C73ABC}" name="Fetch With Limit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1616,13 +3746,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69683AC-612E-47EA-A6CD-AFB47255538A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>465</v>
+      </c>
+      <c r="B2">
+        <v>269</v>
+      </c>
+      <c r="C2">
+        <v>187</v>
+      </c>
+      <c r="D2">
+        <v>141</v>
+      </c>
+      <c r="E2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>614</v>
+      </c>
+      <c r="B3">
+        <v>460</v>
+      </c>
+      <c r="C3">
+        <v>330</v>
+      </c>
+      <c r="D3">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>528</v>
+      </c>
+      <c r="B4">
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <v>225</v>
+      </c>
+      <c r="D4">
+        <v>169</v>
+      </c>
+      <c r="E4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>365</v>
+      </c>
+      <c r="B5">
+        <v>311</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+      <c r="E5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>450</v>
+      </c>
+      <c r="B6">
+        <v>348</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>148</v>
+      </c>
+      <c r="E6">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4202C92B-7392-40E0-AA3D-AE383DEED280}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2245</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1948</v>
+      </c>
+      <c r="B3">
+        <v>157</v>
+      </c>
+      <c r="C3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4">
+        <v>234</v>
+      </c>
+      <c r="C4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2357</v>
+      </c>
+      <c r="B5">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2068</v>
+      </c>
+      <c r="B6">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>